--- a/IMPORTANT/OM SAI DELHI.xlsx
+++ b/IMPORTANT/OM SAI DELHI.xlsx
@@ -1076,8 +1076,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,11 +1161,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>47480</v>
+        <v>7480</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1177,15 +1177,19 @@
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>44586</v>
+      </c>
+      <c r="G6" s="8">
+        <v>40000</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>75400</v>
+        <v>35400</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1201,11 +1205,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>91060</v>
+        <v>51060</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1221,11 +1225,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>115186</v>
+        <v>75186</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,11 +1241,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>115186</v>
+        <v>75186</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44585</v>
+        <v>44586</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1253,11 +1257,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>115186</v>
+        <v>75186</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44586</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1269,11 +1273,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>115186</v>
+        <v>75186</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44586</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1285,11 +1289,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>115186</v>
+        <v>75186</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44586</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1301,11 +1305,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>115186</v>
+        <v>75186</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44586</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,11 +1321,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>115186</v>
+        <v>75186</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44586</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,11 +1337,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>115186</v>
+        <v>75186</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44586</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,11 +1353,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>115186</v>
+        <v>75186</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44586</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,11 +1369,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>115186</v>
+        <v>75186</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44586</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,11 +1385,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>115186</v>
+        <v>75186</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44586</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,11 +1401,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>115186</v>
+        <v>75186</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44586</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,11 +1417,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>115186</v>
+        <v>75186</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44586</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,11 +1433,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>115186</v>
+        <v>75186</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44585</v>
+        <v>44586</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,11 +1449,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>115186</v>
+        <v>75186</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44586</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,11 +1465,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>115186</v>
+        <v>75186</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44586</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,11 +1481,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>115186</v>
+        <v>75186</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44586</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,11 +1497,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>115186</v>
+        <v>75186</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44586</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,11 +1513,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>115186</v>
+        <v>75186</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44586</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,11 +1529,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>115186</v>
+        <v>75186</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44586</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,11 +1545,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>115186</v>
+        <v>75186</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44586</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,11 +1561,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>115186</v>
+        <v>75186</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44586</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,11 +1577,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>115186</v>
+        <v>75186</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44586</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,11 +1593,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>115186</v>
+        <v>75186</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44586</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,11 +1609,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>115186</v>
+        <v>75186</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44586</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1621,11 +1625,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>115186</v>
+        <v>75186</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44586</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1638,11 +1642,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>115186</v>
+        <v>75186</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44585</v>
+        <v>44586</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1671,7 +1675,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>900</v>
+        <v>40900</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1694,7 +1698,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>115186</v>
+        <v>75186</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/OM SAI DELHI.xlsx
+++ b/IMPORTANT/OM SAI DELHI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>DATE</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>02-12-2021 CM</t>
+  </si>
+  <si>
+    <t>gd19-1-22</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1080,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,11 +1164,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>7480</v>
+        <v>7264</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1185,11 +1188,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>35400</v>
+        <v>35184</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1201,15 +1204,19 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="16">
+        <v>216</v>
+      </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>51060</v>
+        <v>50844</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1225,91 +1232,111 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>75186</v>
+        <v>74970</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="52"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="52">
+        <v>44581</v>
+      </c>
+      <c r="B9" s="13">
+        <v>46950</v>
+      </c>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>75186</v>
+        <v>121920</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44586</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="52"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="52">
+        <v>44582</v>
+      </c>
+      <c r="B10" s="13">
+        <v>29770</v>
+      </c>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>75186</v>
+        <v>151690</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44586</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="52"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="52">
+        <v>44590</v>
+      </c>
+      <c r="B11" s="17">
+        <v>10190</v>
+      </c>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>75186</v>
+        <v>161880</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44586</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="52"/>
-      <c r="B12" s="17"/>
+      <c r="A12" s="52">
+        <v>44592</v>
+      </c>
+      <c r="B12" s="17">
+        <v>38370</v>
+      </c>
       <c r="C12" s="14"/>
       <c r="D12" s="18"/>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>75186</v>
+        <v>200250</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44586</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="52"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="52">
+        <v>44594</v>
+      </c>
+      <c r="B13" s="13">
+        <v>19600</v>
+      </c>
       <c r="C13" s="14"/>
       <c r="D13" s="18"/>
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>75186</v>
+        <v>219850</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44586</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1321,11 +1348,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>75186</v>
+        <v>219850</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44586</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1337,11 +1364,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>75186</v>
+        <v>219850</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44586</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1353,11 +1380,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>75186</v>
+        <v>219850</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44586</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1369,11 +1396,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>75186</v>
+        <v>219850</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44586</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1385,11 +1412,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>75186</v>
+        <v>219850</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44586</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1401,11 +1428,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>75186</v>
+        <v>219850</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44586</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1417,11 +1444,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>75186</v>
+        <v>219850</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44586</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1433,11 +1460,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>75186</v>
+        <v>219850</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44586</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1449,11 +1476,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>75186</v>
+        <v>219850</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44586</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1465,11 +1492,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>75186</v>
+        <v>219850</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44586</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1481,11 +1508,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>75186</v>
+        <v>219850</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44586</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1497,11 +1524,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>75186</v>
+        <v>219850</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44586</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1513,11 +1540,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>75186</v>
+        <v>219850</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44586</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1529,11 +1556,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>75186</v>
+        <v>219850</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44586</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1545,11 +1572,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>75186</v>
+        <v>219850</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44586</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1561,11 +1588,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>75186</v>
+        <v>219850</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44586</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1577,11 +1604,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>75186</v>
+        <v>219850</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44586</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1593,11 +1620,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>75186</v>
+        <v>219850</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44586</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1609,11 +1636,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>75186</v>
+        <v>219850</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44586</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1625,11 +1652,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>75186</v>
+        <v>219850</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44586</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1642,11 +1669,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>75186</v>
+        <v>219850</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44586</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1667,7 +1694,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>116086</v>
+        <v>260966</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1675,7 +1702,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>40900</v>
+        <v>41116</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1698,7 +1725,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>75186</v>
+        <v>219850</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/OM SAI DELHI.xlsx
+++ b/IMPORTANT/OM SAI DELHI.xlsx
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1164,11 +1164,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>7264</v>
+        <v>-33736</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1188,11 +1188,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>35184</v>
+        <v>-5816</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1212,11 +1212,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>50844</v>
+        <v>9844</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1228,15 +1228,19 @@
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
+      <c r="F8" s="15">
+        <v>44606</v>
+      </c>
+      <c r="G8" s="16">
+        <v>41000</v>
+      </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>74970</v>
+        <v>33970</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1252,11 +1256,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>121920</v>
+        <v>80920</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1272,11 +1276,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>151690</v>
+        <v>110690</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1292,11 +1296,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>161880</v>
+        <v>120880</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1312,11 +1316,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>200250</v>
+        <v>159250</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1332,11 +1336,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>219850</v>
+        <v>178850</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1348,11 +1352,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>219850</v>
+        <v>178850</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1364,11 +1368,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>219850</v>
+        <v>178850</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1380,11 +1384,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>219850</v>
+        <v>178850</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1396,11 +1400,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>219850</v>
+        <v>178850</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1412,11 +1416,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>219850</v>
+        <v>178850</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1428,11 +1432,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>219850</v>
+        <v>178850</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1444,11 +1448,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>219850</v>
+        <v>178850</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1460,11 +1464,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>219850</v>
+        <v>178850</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1476,11 +1480,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>219850</v>
+        <v>178850</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1492,11 +1496,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>219850</v>
+        <v>178850</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1508,11 +1512,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>219850</v>
+        <v>178850</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1524,11 +1528,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>219850</v>
+        <v>178850</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1540,11 +1544,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>219850</v>
+        <v>178850</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1556,11 +1560,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>219850</v>
+        <v>178850</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1572,11 +1576,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>219850</v>
+        <v>178850</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1588,11 +1592,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>219850</v>
+        <v>178850</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1604,11 +1608,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>219850</v>
+        <v>178850</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1620,11 +1624,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>219850</v>
+        <v>178850</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1636,11 +1640,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>219850</v>
+        <v>178850</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1652,11 +1656,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>219850</v>
+        <v>178850</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1669,11 +1673,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>219850</v>
+        <v>178850</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1702,7 +1706,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>41116</v>
+        <v>82116</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1725,7 +1729,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>219850</v>
+        <v>178850</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/OM SAI DELHI.xlsx
+++ b/IMPORTANT/OM SAI DELHI.xlsx
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1340,23 +1340,27 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="52"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="52">
+        <v>44610</v>
+      </c>
+      <c r="B14" s="17">
+        <v>23190</v>
+      </c>
       <c r="C14" s="14"/>
       <c r="D14" s="18"/>
       <c r="F14" s="15"/>
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>178850</v>
+        <v>202040</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1368,11 +1372,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>178850</v>
+        <v>202040</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1384,11 +1388,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>178850</v>
+        <v>202040</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1400,11 +1404,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>178850</v>
+        <v>202040</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1416,11 +1420,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>178850</v>
+        <v>202040</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1432,11 +1436,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>178850</v>
+        <v>202040</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1448,11 +1452,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>178850</v>
+        <v>202040</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1464,11 +1468,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>178850</v>
+        <v>202040</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1480,11 +1484,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>178850</v>
+        <v>202040</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1496,11 +1500,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>178850</v>
+        <v>202040</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1512,11 +1516,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>178850</v>
+        <v>202040</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1528,11 +1532,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>178850</v>
+        <v>202040</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1544,11 +1548,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>178850</v>
+        <v>202040</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1560,11 +1564,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>178850</v>
+        <v>202040</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1576,11 +1580,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>178850</v>
+        <v>202040</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1592,11 +1596,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>178850</v>
+        <v>202040</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1608,11 +1612,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>178850</v>
+        <v>202040</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1624,11 +1628,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>178850</v>
+        <v>202040</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1640,11 +1644,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>178850</v>
+        <v>202040</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1656,11 +1660,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>178850</v>
+        <v>202040</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1673,11 +1677,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>178850</v>
+        <v>202040</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1698,7 +1702,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>260966</v>
+        <v>284156</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1729,7 +1733,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>178850</v>
+        <v>202040</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/OM SAI DELHI.xlsx
+++ b/IMPORTANT/OM SAI DELHI.xlsx
@@ -1168,7 +1168,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1664,7 +1664,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/OM SAI DELHI.xlsx
+++ b/IMPORTANT/OM SAI DELHI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>DATE</t>
   </si>
@@ -52,12 +52,6 @@
   </si>
   <si>
     <t>CUSTOMER NAME - OM SAI DELHI</t>
-  </si>
-  <si>
-    <t>02-12-2021 CM</t>
-  </si>
-  <si>
-    <t>gd19-1-22</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1149,218 +1143,174 @@
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7">
-        <v>44526</v>
+        <v>44681</v>
       </c>
       <c r="B5" s="8">
-        <v>48380</v>
+        <v>210000</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7" t="s">
-        <v>12</v>
+      <c r="F5" s="7">
+        <v>44693</v>
       </c>
       <c r="G5" s="8">
-        <v>900</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-33736</v>
+        <v>125000</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>108</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7">
-        <v>44532</v>
-      </c>
-      <c r="B6" s="8">
-        <v>27920</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
       <c r="F6" s="7">
-        <v>44586</v>
+        <v>44703</v>
       </c>
       <c r="G6" s="8">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-5816</v>
+        <v>125000</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>102</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49">
-        <v>44537</v>
-      </c>
-      <c r="B7" s="16">
-        <v>15660</v>
-      </c>
+      <c r="A7" s="49"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="16">
-        <v>216</v>
-      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>9844</v>
+        <v>125000</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>97</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15">
-        <v>44580</v>
-      </c>
-      <c r="B8" s="16">
-        <v>24126</v>
-      </c>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
-      <c r="F8" s="15">
-        <v>44606</v>
-      </c>
-      <c r="G8" s="16">
-        <v>41000</v>
-      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>33970</v>
+        <v>125000</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>54</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="52">
-        <v>44581</v>
-      </c>
-      <c r="B9" s="13">
-        <v>46950</v>
-      </c>
+      <c r="A9" s="52"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>80920</v>
+        <v>125000</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>53</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="52">
-        <v>44582</v>
-      </c>
-      <c r="B10" s="13">
-        <v>29770</v>
-      </c>
+      <c r="A10" s="52"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>110690</v>
+        <v>125000</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="52">
-        <v>44590</v>
-      </c>
-      <c r="B11" s="17">
-        <v>10190</v>
-      </c>
+      <c r="A11" s="52"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>120880</v>
+        <v>125000</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="52">
-        <v>44592</v>
-      </c>
-      <c r="B12" s="17">
-        <v>38370</v>
-      </c>
+      <c r="A12" s="52"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="14"/>
       <c r="D12" s="18"/>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>159250</v>
+        <v>125000</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="52">
-        <v>44594</v>
-      </c>
-      <c r="B13" s="13">
-        <v>19600</v>
-      </c>
+      <c r="A13" s="52"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="14"/>
       <c r="D13" s="18"/>
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>178850</v>
+        <v>125000</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="52">
-        <v>44610</v>
-      </c>
-      <c r="B14" s="17">
-        <v>23190</v>
-      </c>
+      <c r="A14" s="52"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="14"/>
       <c r="D14" s="18"/>
       <c r="F14" s="15"/>
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>202040</v>
+        <v>125000</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1372,11 +1322,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>202040</v>
+        <v>125000</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1388,11 +1338,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>202040</v>
+        <v>125000</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1404,11 +1354,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>202040</v>
+        <v>125000</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1420,11 +1370,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>202040</v>
+        <v>125000</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1436,11 +1386,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>202040</v>
+        <v>125000</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1452,11 +1402,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>202040</v>
+        <v>125000</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1468,11 +1418,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>202040</v>
+        <v>125000</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1484,11 +1434,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>202040</v>
+        <v>125000</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1500,11 +1450,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>202040</v>
+        <v>125000</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1516,11 +1466,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>202040</v>
+        <v>125000</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1532,11 +1482,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>202040</v>
+        <v>125000</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1548,11 +1498,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>202040</v>
+        <v>125000</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1564,11 +1514,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>202040</v>
+        <v>125000</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1580,11 +1530,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>202040</v>
+        <v>125000</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1596,11 +1546,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>202040</v>
+        <v>125000</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1612,11 +1562,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>202040</v>
+        <v>125000</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1628,11 +1578,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>202040</v>
+        <v>125000</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1644,11 +1594,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>202040</v>
+        <v>125000</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1660,11 +1610,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>202040</v>
+        <v>125000</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1677,11 +1627,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>202040</v>
+        <v>125000</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1702,7 +1652,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>284156</v>
+        <v>210000</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1710,7 +1660,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>82116</v>
+        <v>85000</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1733,7 +1683,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>202040</v>
+        <v>125000</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/OM SAI DELHI.xlsx
+++ b/IMPORTANT/OM SAI DELHI.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="K21" sqref="K20:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>125000</v>
+        <v>85000</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1178,11 +1178,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>125000</v>
+        <v>85000</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44713</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1190,15 +1190,19 @@
       <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="49">
+        <v>44720</v>
+      </c>
+      <c r="G7" s="16">
+        <v>40000</v>
+      </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>125000</v>
+        <v>85000</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44713</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1210,11 +1214,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>125000</v>
+        <v>85000</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44713</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1226,11 +1230,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>125000</v>
+        <v>85000</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44713</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1242,11 +1246,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>125000</v>
+        <v>85000</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1258,11 +1262,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>125000</v>
+        <v>85000</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1274,11 +1278,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>125000</v>
+        <v>85000</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1290,11 +1294,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>125000</v>
+        <v>85000</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1306,11 +1310,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>125000</v>
+        <v>85000</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1322,11 +1326,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>125000</v>
+        <v>85000</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1338,11 +1342,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>125000</v>
+        <v>85000</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1354,11 +1358,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>125000</v>
+        <v>85000</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1370,11 +1374,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>125000</v>
+        <v>85000</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1386,11 +1390,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>125000</v>
+        <v>85000</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1402,11 +1406,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>125000</v>
+        <v>85000</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1418,11 +1422,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>125000</v>
+        <v>85000</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44713</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1434,11 +1438,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>125000</v>
+        <v>85000</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1450,11 +1454,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>125000</v>
+        <v>85000</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1466,11 +1470,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>125000</v>
+        <v>85000</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1482,11 +1486,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>125000</v>
+        <v>85000</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1498,11 +1502,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>125000</v>
+        <v>85000</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1514,11 +1518,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>125000</v>
+        <v>85000</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1530,11 +1534,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>125000</v>
+        <v>85000</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1546,11 +1550,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>125000</v>
+        <v>85000</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1562,11 +1566,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>125000</v>
+        <v>85000</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1578,11 +1582,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>125000</v>
+        <v>85000</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1594,11 +1598,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>125000</v>
+        <v>85000</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1610,11 +1614,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>125000</v>
+        <v>85000</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1627,11 +1631,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>125000</v>
+        <v>85000</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44713</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1660,7 +1664,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>85000</v>
+        <v>125000</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1683,7 +1687,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>125000</v>
+        <v>85000</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/OM SAI DELHI.xlsx
+++ b/IMPORTANT/OM SAI DELHI.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K21" sqref="K20:K21"/>
+      <selection activeCell="A5" sqref="A5:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1142,27 +1142,19 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>44681</v>
-      </c>
-      <c r="B5" s="8">
-        <v>210000</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7">
-        <v>44693</v>
-      </c>
-      <c r="G5" s="8">
-        <v>40000</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>39</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1170,19 +1162,15 @@
       <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7">
-        <v>44703</v>
-      </c>
-      <c r="G6" s="8">
-        <v>45000</v>
-      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1190,19 +1178,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49">
-        <v>44720</v>
-      </c>
-      <c r="G7" s="16">
-        <v>40000</v>
-      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1214,11 +1198,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1230,11 +1214,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1246,11 +1230,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1262,11 +1246,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1278,11 +1262,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1294,11 +1278,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1310,11 +1294,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1326,11 +1310,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1342,11 +1326,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1358,11 +1342,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1374,11 +1358,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1390,11 +1374,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1406,11 +1390,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1422,11 +1406,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1438,11 +1422,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1454,11 +1438,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1470,11 +1454,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1486,11 +1470,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1502,11 +1486,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1518,11 +1502,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1534,11 +1518,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1550,11 +1534,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1566,11 +1550,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1582,11 +1566,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1598,11 +1582,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1614,11 +1598,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1631,11 +1615,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44720</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1656,7 +1640,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>210000</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1664,7 +1648,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>125000</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1687,7 +1671,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/OM SAI DELHI.xlsx
+++ b/IMPORTANT/OM SAI DELHI.xlsx
@@ -1154,7 +1154,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/OM SAI DELHI.xlsx
+++ b/IMPORTANT/OM SAI DELHI.xlsx
@@ -1154,7 +1154,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/OM SAI DELHI.xlsx
+++ b/IMPORTANT/OM SAI DELHI.xlsx
@@ -1154,7 +1154,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/OM SAI DELHI.xlsx
+++ b/IMPORTANT/OM SAI DELHI.xlsx
@@ -1154,7 +1154,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/OM SAI DELHI.xlsx
+++ b/IMPORTANT/OM SAI DELHI.xlsx
@@ -1073,8 +1073,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1142,19 +1142,23 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="7">
+        <v>44950</v>
+      </c>
+      <c r="B5" s="8">
+        <v>22336</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>0</v>
+        <v>22336</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44915</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1166,11 +1170,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>0</v>
+        <v>22336</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1182,11 +1186,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>0</v>
+        <v>22336</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1198,11 +1202,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>0</v>
+        <v>22336</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1214,11 +1218,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>0</v>
+        <v>22336</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1230,11 +1234,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22336</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1246,11 +1250,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22336</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1262,11 +1266,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22336</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1278,11 +1282,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22336</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1294,11 +1298,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22336</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1310,11 +1314,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22336</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1326,11 +1330,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22336</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1342,11 +1346,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22336</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1358,11 +1362,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22336</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1374,11 +1378,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22336</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1390,11 +1394,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22336</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1406,11 +1410,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22336</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1422,11 +1426,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22336</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1438,11 +1442,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22336</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1454,11 +1458,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22336</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1470,11 +1474,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22336</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1486,11 +1490,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22336</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1502,11 +1506,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22336</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1518,11 +1522,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22336</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1534,11 +1538,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22336</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1550,11 +1554,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22336</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1566,11 +1570,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22336</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1582,11 +1586,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22336</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1598,11 +1602,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>0</v>
+        <v>22336</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1615,11 +1619,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22336</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1640,7 +1644,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>0</v>
+        <v>22336</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1671,7 +1675,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>0</v>
+        <v>22336</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/OM SAI DELHI.xlsx
+++ b/IMPORTANT/OM SAI DELHI.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1158,39 +1158,47 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="7">
+        <v>44956</v>
+      </c>
+      <c r="B6" s="8">
+        <v>21546</v>
+      </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>22336</v>
+        <v>43882</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44956</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="49">
+        <v>44957</v>
+      </c>
+      <c r="B7" s="16">
+        <v>63412</v>
+      </c>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
       <c r="F7" s="49"/>
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>22336</v>
+        <v>107294</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44956</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1202,11 +1210,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>22336</v>
+        <v>107294</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,11 +1226,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>22336</v>
+        <v>107294</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,11 +1242,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>22336</v>
+        <v>107294</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,11 +1258,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>22336</v>
+        <v>107294</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,11 +1274,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>22336</v>
+        <v>107294</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1282,11 +1290,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>22336</v>
+        <v>107294</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,11 +1306,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>22336</v>
+        <v>107294</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,11 +1322,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>22336</v>
+        <v>107294</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,11 +1338,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>22336</v>
+        <v>107294</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,11 +1354,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>22336</v>
+        <v>107294</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,11 +1370,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>22336</v>
+        <v>107294</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,11 +1386,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>22336</v>
+        <v>107294</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,11 +1402,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>22336</v>
+        <v>107294</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,11 +1418,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>22336</v>
+        <v>107294</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,11 +1434,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>22336</v>
+        <v>107294</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,11 +1450,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>22336</v>
+        <v>107294</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,11 +1466,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>22336</v>
+        <v>107294</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,11 +1482,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>22336</v>
+        <v>107294</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,11 +1498,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>22336</v>
+        <v>107294</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,11 +1514,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>22336</v>
+        <v>107294</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,11 +1530,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>22336</v>
+        <v>107294</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,11 +1546,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>22336</v>
+        <v>107294</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,11 +1562,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>22336</v>
+        <v>107294</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,11 +1578,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>22336</v>
+        <v>107294</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,11 +1594,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>22336</v>
+        <v>107294</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,11 +1610,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>22336</v>
+        <v>107294</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,11 +1627,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>22336</v>
+        <v>107294</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1644,7 +1652,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>22336</v>
+        <v>107294</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1675,7 +1683,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>22336</v>
+        <v>107294</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/OM SAI DELHI.xlsx
+++ b/IMPORTANT/OM SAI DELHI.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1150,15 +1150,19 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>44974</v>
+      </c>
+      <c r="G5" s="8">
+        <v>25000</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>22336</v>
+        <v>-2664</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1174,11 +1178,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>43882</v>
+        <v>18882</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1194,11 +1198,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>107294</v>
+        <v>82294</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1210,11 +1214,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>107294</v>
+        <v>82294</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1226,11 +1230,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>107294</v>
+        <v>82294</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1242,11 +1246,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>107294</v>
+        <v>82294</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1258,11 +1262,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>107294</v>
+        <v>82294</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1274,11 +1278,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>107294</v>
+        <v>82294</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1290,11 +1294,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>107294</v>
+        <v>82294</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1306,11 +1310,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>107294</v>
+        <v>82294</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1322,11 +1326,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>107294</v>
+        <v>82294</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1338,11 +1342,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>107294</v>
+        <v>82294</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1354,11 +1358,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>107294</v>
+        <v>82294</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1370,11 +1374,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>107294</v>
+        <v>82294</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1386,11 +1390,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>107294</v>
+        <v>82294</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1402,11 +1406,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>107294</v>
+        <v>82294</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1418,11 +1422,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>107294</v>
+        <v>82294</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1434,11 +1438,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>107294</v>
+        <v>82294</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1450,11 +1454,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>107294</v>
+        <v>82294</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1466,11 +1470,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>107294</v>
+        <v>82294</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1482,11 +1486,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>107294</v>
+        <v>82294</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1498,11 +1502,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>107294</v>
+        <v>82294</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1514,11 +1518,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>107294</v>
+        <v>82294</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1530,11 +1534,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>107294</v>
+        <v>82294</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1546,11 +1550,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>107294</v>
+        <v>82294</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1562,11 +1566,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>107294</v>
+        <v>82294</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1578,11 +1582,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>107294</v>
+        <v>82294</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1594,11 +1598,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>107294</v>
+        <v>82294</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1610,11 +1614,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>107294</v>
+        <v>82294</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1627,11 +1631,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>107294</v>
+        <v>82294</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1660,7 +1664,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1683,7 +1687,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>107294</v>
+        <v>82294</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/OM SAI DELHI.xlsx
+++ b/IMPORTANT/OM SAI DELHI.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1202,39 +1202,47 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="15">
+        <v>44972</v>
+      </c>
+      <c r="B8" s="16">
+        <v>21236</v>
+      </c>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>82294</v>
+        <v>103530</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44975</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="52"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="52">
+        <v>44973</v>
+      </c>
+      <c r="B9" s="13">
+        <v>26600</v>
+      </c>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>82294</v>
+        <v>130130</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44975</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1246,11 +1254,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>82294</v>
+        <v>130130</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1262,11 +1270,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>82294</v>
+        <v>130130</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1278,11 +1286,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>82294</v>
+        <v>130130</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1294,11 +1302,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>82294</v>
+        <v>130130</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1310,11 +1318,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>82294</v>
+        <v>130130</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1326,11 +1334,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>82294</v>
+        <v>130130</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1342,11 +1350,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>82294</v>
+        <v>130130</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1358,11 +1366,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>82294</v>
+        <v>130130</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1374,11 +1382,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>82294</v>
+        <v>130130</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1390,11 +1398,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>82294</v>
+        <v>130130</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1406,11 +1414,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>82294</v>
+        <v>130130</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1422,11 +1430,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>82294</v>
+        <v>130130</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44975</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1438,11 +1446,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>82294</v>
+        <v>130130</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1454,11 +1462,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>82294</v>
+        <v>130130</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1470,11 +1478,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>82294</v>
+        <v>130130</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1486,11 +1494,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>82294</v>
+        <v>130130</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1502,11 +1510,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>82294</v>
+        <v>130130</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1518,11 +1526,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>82294</v>
+        <v>130130</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1534,11 +1542,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>82294</v>
+        <v>130130</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1550,11 +1558,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>82294</v>
+        <v>130130</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1566,11 +1574,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>82294</v>
+        <v>130130</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1582,11 +1590,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>82294</v>
+        <v>130130</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1598,11 +1606,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>82294</v>
+        <v>130130</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1614,11 +1622,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>82294</v>
+        <v>130130</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1631,11 +1639,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>82294</v>
+        <v>130130</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44975</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1656,7 +1664,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>107294</v>
+        <v>155130</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1687,7 +1695,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>82294</v>
+        <v>130130</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/OM SAI DELHI.xlsx
+++ b/IMPORTANT/OM SAI DELHI.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-2664</v>
+        <v>-42664</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1174,15 +1174,19 @@
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>44995</v>
+      </c>
+      <c r="G6" s="8">
+        <v>40000</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>18882</v>
+        <v>-21118</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1198,11 +1202,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>82294</v>
+        <v>42294</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,11 +1222,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>103530</v>
+        <v>63530</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1238,43 +1242,51 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>130130</v>
+        <v>90130</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="52"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="52">
+        <v>44996</v>
+      </c>
+      <c r="B10" s="13">
+        <v>62994</v>
+      </c>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>130130</v>
+        <v>153124</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44992</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="52"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="52">
+        <v>45012</v>
+      </c>
+      <c r="B11" s="17">
+        <v>36026</v>
+      </c>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>130130</v>
+        <v>189150</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44992</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1286,11 +1298,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>130130</v>
+        <v>189150</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44992</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1302,11 +1314,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>130130</v>
+        <v>189150</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44992</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1318,11 +1330,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>130130</v>
+        <v>189150</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44992</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1334,11 +1346,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>130130</v>
+        <v>189150</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44992</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1350,11 +1362,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>130130</v>
+        <v>189150</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44992</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1366,11 +1378,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>130130</v>
+        <v>189150</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44992</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1382,11 +1394,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>130130</v>
+        <v>189150</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44992</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1398,11 +1410,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>130130</v>
+        <v>189150</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44992</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1414,11 +1426,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>130130</v>
+        <v>189150</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44992</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1430,11 +1442,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>130130</v>
+        <v>189150</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44992</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1446,11 +1458,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>130130</v>
+        <v>189150</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44992</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1462,11 +1474,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>130130</v>
+        <v>189150</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44992</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1478,11 +1490,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>130130</v>
+        <v>189150</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44992</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1494,11 +1506,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>130130</v>
+        <v>189150</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44992</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1510,11 +1522,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>130130</v>
+        <v>189150</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44992</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1526,11 +1538,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>130130</v>
+        <v>189150</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44992</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1542,11 +1554,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>130130</v>
+        <v>189150</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44992</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1558,11 +1570,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>130130</v>
+        <v>189150</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44992</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1574,11 +1586,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>130130</v>
+        <v>189150</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44992</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1590,11 +1602,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>130130</v>
+        <v>189150</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44992</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1606,11 +1618,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>130130</v>
+        <v>189150</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44992</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1622,11 +1634,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>130130</v>
+        <v>189150</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44992</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1639,11 +1651,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>130130</v>
+        <v>189150</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44992</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1664,7 +1676,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>155130</v>
+        <v>254150</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1672,7 +1684,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>25000</v>
+        <v>65000</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1695,7 +1707,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>130130</v>
+        <v>189150</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/OM SAI DELHI.xlsx
+++ b/IMPORTANT/OM SAI DELHI.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-42664</v>
+        <v>-132664</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>70</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1182,11 +1182,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-21118</v>
+        <v>-111118</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>64</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1198,15 +1198,19 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="49">
+        <v>45021</v>
+      </c>
+      <c r="G7" s="16">
+        <v>45000</v>
+      </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>42294</v>
+        <v>-47706</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,15 +1222,19 @@
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
+      <c r="F8" s="15">
+        <v>45043</v>
+      </c>
+      <c r="G8" s="16">
+        <v>45000</v>
+      </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>63530</v>
+        <v>-26470</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>48</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1242,11 +1250,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>90130</v>
+        <v>130</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1262,11 +1270,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>153124</v>
+        <v>63124</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1282,11 +1290,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>189150</v>
+        <v>99150</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,11 +1306,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>189150</v>
+        <v>99150</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1314,11 +1322,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>189150</v>
+        <v>99150</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,11 +1338,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>189150</v>
+        <v>99150</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,11 +1354,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>189150</v>
+        <v>99150</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,11 +1370,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>189150</v>
+        <v>99150</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,11 +1386,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>189150</v>
+        <v>99150</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,11 +1402,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>189150</v>
+        <v>99150</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,11 +1418,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>189150</v>
+        <v>99150</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,11 +1434,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>189150</v>
+        <v>99150</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,11 +1450,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>189150</v>
+        <v>99150</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45020</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,11 +1466,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>189150</v>
+        <v>99150</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,11 +1482,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>189150</v>
+        <v>99150</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,11 +1498,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>189150</v>
+        <v>99150</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,11 +1514,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>189150</v>
+        <v>99150</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,11 +1530,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>189150</v>
+        <v>99150</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,11 +1546,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>189150</v>
+        <v>99150</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,11 +1562,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>189150</v>
+        <v>99150</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,11 +1578,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>189150</v>
+        <v>99150</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,11 +1594,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>189150</v>
+        <v>99150</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,11 +1610,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>189150</v>
+        <v>99150</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1618,11 +1626,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>189150</v>
+        <v>99150</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1634,11 +1642,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>189150</v>
+        <v>99150</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1651,11 +1659,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>189150</v>
+        <v>99150</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45020</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1684,7 +1692,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>65000</v>
+        <v>155000</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1707,7 +1715,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>189150</v>
+        <v>99150</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/OM SAI DELHI.xlsx
+++ b/IMPORTANT/OM SAI DELHI.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-132664</v>
+        <v>-181664</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>93</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1182,11 +1182,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-111118</v>
+        <v>-160118</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>87</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1206,11 +1206,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-47706</v>
+        <v>-96706</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>86</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1230,11 +1230,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-26470</v>
+        <v>-75470</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>71</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1246,15 +1246,19 @@
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+      <c r="F9" s="15">
+        <v>45062</v>
+      </c>
+      <c r="G9" s="16">
+        <v>49000</v>
+      </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>130</v>
+        <v>-48870</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>70</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1270,11 +1274,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>63124</v>
+        <v>14124</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1290,27 +1294,31 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>99150</v>
+        <v>50150</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="52"/>
-      <c r="B12" s="17"/>
+      <c r="A12" s="52">
+        <v>45044</v>
+      </c>
+      <c r="B12" s="17">
+        <v>12790</v>
+      </c>
       <c r="C12" s="14"/>
       <c r="D12" s="18"/>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>99150</v>
+        <v>62940</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1322,11 +1330,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>99150</v>
+        <v>62940</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1338,11 +1346,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>99150</v>
+        <v>62940</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1354,11 +1362,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>99150</v>
+        <v>62940</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1370,11 +1378,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>99150</v>
+        <v>62940</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1386,11 +1394,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>99150</v>
+        <v>62940</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1402,11 +1410,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>99150</v>
+        <v>62940</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1418,11 +1426,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>99150</v>
+        <v>62940</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1434,11 +1442,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>99150</v>
+        <v>62940</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1450,11 +1458,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>99150</v>
+        <v>62940</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45043</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1466,11 +1474,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>99150</v>
+        <v>62940</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1482,11 +1490,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>99150</v>
+        <v>62940</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1498,11 +1506,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>99150</v>
+        <v>62940</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1514,11 +1522,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>99150</v>
+        <v>62940</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1530,11 +1538,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>99150</v>
+        <v>62940</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1546,11 +1554,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>99150</v>
+        <v>62940</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1562,11 +1570,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>99150</v>
+        <v>62940</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1578,11 +1586,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>99150</v>
+        <v>62940</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1594,11 +1602,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>99150</v>
+        <v>62940</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1610,11 +1618,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>99150</v>
+        <v>62940</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1626,11 +1634,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>99150</v>
+        <v>62940</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1642,11 +1650,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>99150</v>
+        <v>62940</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1659,11 +1667,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>99150</v>
+        <v>62940</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45043</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1684,7 +1692,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>254150</v>
+        <v>266940</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1692,7 +1700,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>155000</v>
+        <v>204000</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1715,7 +1723,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>99150</v>
+        <v>62940</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/OM SAI DELHI.xlsx
+++ b/IMPORTANT/OM SAI DELHI.xlsx
@@ -1162,7 +1162,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45097</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45097</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45097</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45097</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45097</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45097</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45097</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45097</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45091</v>
+        <v>45097</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45097</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45097</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45097</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45097</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45097</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45097</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45097</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45097</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45097</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45097</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45097</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45097</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45091</v>
+        <v>45097</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/OM SAI DELHI.xlsx
+++ b/IMPORTANT/OM SAI DELHI.xlsx
@@ -1073,8 +1073,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-181664</v>
+        <v>-221664</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>147</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1182,11 +1182,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-160118</v>
+        <v>-200118</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>141</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1206,11 +1206,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-96706</v>
+        <v>-136706</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>140</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1230,11 +1230,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-75470</v>
+        <v>-115470</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>125</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1254,11 +1254,11 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-48870</v>
+        <v>-88870</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>124</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1270,15 +1270,19 @@
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
+      <c r="F10" s="15">
+        <v>45098</v>
+      </c>
+      <c r="G10" s="16">
+        <v>40000</v>
+      </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>14124</v>
+        <v>-25876</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>101</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1294,11 +1298,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>50150</v>
+        <v>10150</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,11 +1318,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>62940</v>
+        <v>22940</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1330,11 +1334,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>62940</v>
+        <v>22940</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45097</v>
+        <v>45164</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,11 +1350,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>62940</v>
+        <v>22940</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45097</v>
+        <v>45164</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,11 +1366,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>62940</v>
+        <v>22940</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45097</v>
+        <v>45164</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,11 +1382,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>62940</v>
+        <v>22940</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45097</v>
+        <v>45164</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,11 +1398,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>62940</v>
+        <v>22940</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45097</v>
+        <v>45164</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,11 +1414,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>62940</v>
+        <v>22940</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45097</v>
+        <v>45164</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,11 +1430,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>62940</v>
+        <v>22940</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45097</v>
+        <v>45164</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,11 +1446,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>62940</v>
+        <v>22940</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45097</v>
+        <v>45164</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,11 +1462,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>62940</v>
+        <v>22940</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45097</v>
+        <v>45164</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,11 +1478,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>62940</v>
+        <v>22940</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45097</v>
+        <v>45164</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,11 +1494,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>62940</v>
+        <v>22940</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45097</v>
+        <v>45164</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,11 +1510,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>62940</v>
+        <v>22940</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45097</v>
+        <v>45164</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,11 +1526,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>62940</v>
+        <v>22940</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45097</v>
+        <v>45164</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,11 +1542,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>62940</v>
+        <v>22940</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45097</v>
+        <v>45164</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,11 +1558,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>62940</v>
+        <v>22940</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45097</v>
+        <v>45164</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,11 +1574,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>62940</v>
+        <v>22940</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45097</v>
+        <v>45164</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,11 +1590,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>62940</v>
+        <v>22940</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45097</v>
+        <v>45164</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,11 +1606,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>62940</v>
+        <v>22940</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45097</v>
+        <v>45164</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1618,11 +1622,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>62940</v>
+        <v>22940</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45097</v>
+        <v>45164</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1634,11 +1638,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>62940</v>
+        <v>22940</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45097</v>
+        <v>45164</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1650,11 +1654,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>62940</v>
+        <v>22940</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45097</v>
+        <v>45164</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1667,11 +1671,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>62940</v>
+        <v>22940</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45097</v>
+        <v>45164</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1700,7 +1704,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>204000</v>
+        <v>244000</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1723,7 +1727,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>62940</v>
+        <v>22940</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/OM SAI DELHI.xlsx
+++ b/IMPORTANT/OM SAI DELHI.xlsx
@@ -1162,7 +1162,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>214</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>208</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>207</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>192</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>191</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>168</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>152</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>120</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45164</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45164</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45164</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45164</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45164</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45164</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45164</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45164</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45164</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45164</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45164</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45164</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45164</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45164</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45164</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45164</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45164</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45164</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45164</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45164</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1658,7 +1658,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45164</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45164</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
